--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">Внесение ингредиентов</t>
   </si>
   <si>
+    <t xml:space="preserve">Kод</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне "Unagrande", 80%, 0,25 кг, пл/с</t>
   </si>
   <si>
@@ -109,51 +112,78 @@
     <t xml:space="preserve">[255, 225]</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000079142</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне "Pretto", 80%, 0,25 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Pretto</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000083955</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне "Pretto", 80%, 0,5 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000083957</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне "Красная птица", 80%,  0,25 кг, пл/с, (6 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">Красная птица</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095118</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне с шоколадом "Красная птица", 50%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Шоколад</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000096631</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне "ВкусВилл", 80%, 0,25 кг, пл/с (6 шт)</t>
   </si>
   <si>
     <t xml:space="preserve">ВкусВилл</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000094363</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне "Глобус", 80%, 0,25 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Глобус</t>
   </si>
   <si>
+    <t xml:space="preserve">326636013</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне "Unаgrande", 80%, 0,5 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Unаgrande</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000085587</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне с шоколадом "Бонджорно", 50%, 0,2 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Бонджорно</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000095933</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сливки Panna Fresca "Unagrande", 38%, 0,5 л, пл/с</t>
   </si>
   <si>
@@ -166,7 +196,13 @@
     <t xml:space="preserve">[250, 250]</t>
   </si>
   <si>
+    <t xml:space="preserve">Н0000090708</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сливки "Красная птица", 38%, 0,25 л, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000096634</t>
   </si>
 </sst>
 </file>
@@ -176,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -206,6 +242,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,12 +300,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,7 +345,7 @@
   <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="topLeft" activeCell="Y17" activeCellId="0" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,7 +357,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="14" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="14" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="22.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="22" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -375,26 +424,28 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.25</v>
@@ -406,22 +457,22 @@
         <v>480</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -429,25 +480,28 @@
       <c r="U2" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="V2" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.25</v>
@@ -459,22 +513,22 @@
         <v>480</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>1</v>
@@ -482,25 +536,28 @@
       <c r="U3" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="V3" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.5</v>
@@ -512,22 +569,22 @@
         <v>480</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>1</v>
@@ -535,25 +592,28 @@
       <c r="U4" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="V4" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.25</v>
@@ -565,22 +625,22 @@
         <v>480</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>1</v>
@@ -588,28 +648,31 @@
       <c r="U5" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="V5" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.2</v>
@@ -621,22 +684,22 @@
         <v>480</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>1.5</v>
@@ -644,25 +707,28 @@
       <c r="U6" s="0" t="n">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="V6" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.25</v>
@@ -674,22 +740,22 @@
         <v>480</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>1</v>
@@ -697,25 +763,28 @@
       <c r="U7" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
+      <c r="V7" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.25</v>
@@ -727,22 +796,22 @@
         <v>480</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>1</v>
@@ -750,25 +819,28 @@
       <c r="U8" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="V8" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0.5</v>
@@ -780,22 +852,22 @@
         <v>480</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>1</v>
@@ -803,28 +875,31 @@
       <c r="U9" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="V9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>42</v>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.2</v>
@@ -836,22 +911,22 @@
         <v>480</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>1.5</v>
@@ -859,25 +934,28 @@
       <c r="U10" s="0" t="n">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="V10" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.5</v>
@@ -889,22 +967,22 @@
         <v>300</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>1</v>
@@ -912,25 +990,28 @@
       <c r="U11" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="V11" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.25</v>
@@ -942,28 +1023,31 @@
         <v>300</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -203,16 +203,20 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000096634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сливки Panna Fresca "Unagrande", 38%, 0,25 кг, пл/с</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,22 +248,34 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -272,6 +288,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -300,16 +331,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -325,6 +352,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -334,6 +369,76 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFB7DEE8"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -342,10 +447,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y17" activeCellId="0" sqref="Y17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,15 +529,15 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -444,7 +549,7 @@
       <c r="F2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -485,10 +590,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -500,7 +605,7 @@
       <c r="F3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="0" t="n">
@@ -541,10 +646,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -556,7 +661,7 @@
       <c r="F4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="0" t="n">
@@ -597,10 +702,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -612,7 +717,7 @@
       <c r="F5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="0" t="n">
@@ -653,10 +758,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -671,7 +776,7 @@
       <c r="F6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="0" t="n">
@@ -712,10 +817,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -727,7 +832,7 @@
       <c r="F7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="0" t="n">
@@ -768,10 +873,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -783,7 +888,7 @@
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="0" t="n">
@@ -824,10 +929,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -839,7 +944,7 @@
       <c r="F9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="0" t="n">
@@ -880,10 +985,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -898,7 +1003,7 @@
       <c r="F10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="0" t="n">
@@ -939,10 +1044,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -954,7 +1059,7 @@
       <c r="F11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="0" t="n">
@@ -994,11 +1099,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -1010,7 +1115,7 @@
       <c r="F12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="0" t="n">
@@ -1050,7 +1155,62 @@
         <v>60</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">Сливки Panna Fresca "Unagrande", 38%, 0,25 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000097529</t>
   </si>
 </sst>
 </file>
@@ -255,10 +258,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -449,8 +453,8 @@
   </sheetPr>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1155,7 +1159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -1171,7 +1175,7 @@
       <c r="F13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="0" t="n">
@@ -1203,6 +1207,12 @@
       </c>
       <c r="T13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -453,8 +453,8 @@
   </sheetPr>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1185,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>24</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -94,22 +94,22 @@
     <t xml:space="preserve">Unagrande</t>
   </si>
   <si>
-    <t xml:space="preserve">[10, 5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15, 10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10, 10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30, 20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[500, 300]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[255, 225]</t>
+    <t xml:space="preserve">[10,5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[500,300]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[255,225]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000079142</t>
@@ -190,10 +190,13 @@
     <t xml:space="preserve">Сливки</t>
   </si>
   <si>
-    <t xml:space="preserve">[0, 0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[250, 250]</t>
+    <t xml:space="preserve">[0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[250,250]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000090708</t>
@@ -215,11 +218,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -250,36 +252,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DEE8"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -292,21 +274,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="dashed">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="dashed">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="dashed">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="dashed">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -335,33 +302,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -373,76 +320,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-  </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFB7DEE8"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -453,26 +330,16 @@
   </sheetPr>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="14" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="22.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="22" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,11 +404,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -553,7 +420,7 @@
       <c r="F2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="0" t="n">
@@ -593,11 +460,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -609,7 +476,7 @@
       <c r="F3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="0" t="n">
@@ -649,11 +516,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="0" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -665,7 +532,7 @@
       <c r="F4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="0" t="n">
@@ -705,11 +572,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -721,7 +588,7 @@
       <c r="F5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="0" t="n">
@@ -761,11 +628,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="0" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -780,7 +647,7 @@
       <c r="F6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="0" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="0" t="n">
@@ -820,11 +687,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -836,7 +703,7 @@
       <c r="F7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="0" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="0" t="n">
@@ -876,11 +743,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -892,7 +759,7 @@
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="0" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="0" t="n">
@@ -932,11 +799,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -948,7 +815,7 @@
       <c r="F9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="0" t="n">
@@ -988,11 +855,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="0" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -1007,7 +874,7 @@
       <c r="F10" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="0" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="0" t="n">
@@ -1047,11 +914,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="0" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -1063,7 +930,7 @@
       <c r="F11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="0" t="n">
@@ -1076,7 +943,7 @@
         <v>300</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>26</v>
@@ -1085,13 +952,13 @@
         <v>56</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="R11" s="0" t="s">
         <v>28</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>1</v>
@@ -1100,15 +967,15 @@
         <v>0</v>
       </c>
       <c r="V11" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>59</v>
+      <c r="B12" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
@@ -1119,7 +986,7 @@
       <c r="F12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="0" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="0" t="n">
@@ -1132,7 +999,7 @@
         <v>300</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>26</v>
@@ -1141,13 +1008,13 @@
         <v>56</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="R12" s="0" t="s">
         <v>28</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>1</v>
@@ -1156,15 +1023,15 @@
         <v>0</v>
       </c>
       <c r="V12" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>61</v>
+      <c r="B13" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
@@ -1175,7 +1042,7 @@
       <c r="F13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="0" t="n">
@@ -1188,7 +1055,7 @@
         <v>300</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>26</v>
@@ -1197,13 +1064,13 @@
         <v>56</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>1</v>
@@ -1211,16 +1078,11 @@
       <c r="U13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="6" t="s">
-        <v>62</v>
+      <c r="V13" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Процент</t>
   </si>
   <si>
+    <t xml:space="preserve">Наличие лактозы</t>
+  </si>
+  <si>
     <t xml:space="preserve">Вкусовая добавка</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">Маскарпоне "Unagrande", 80%, 0,25 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Да</t>
+  </si>
+  <si>
     <t xml:space="preserve">Маскарпоне</t>
   </si>
   <si>
@@ -212,6 +218,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000097529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маскарпоне без лактозы "Unagrande", 80%, 0,25 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет</t>
   </si>
 </sst>
 </file>
@@ -221,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -251,6 +263,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,13 +321,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -328,25 +355,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -403,683 +432,781 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>22</v>
+      <c r="D2" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="J2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>22</v>
+      <c r="D3" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M3" s="0" t="n">
+      <c r="J3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W3" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>22</v>
+      <c r="D4" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M4" s="0" t="n">
+      <c r="J4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W4" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>22</v>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" s="0" t="n">
+      <c r="J5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="V5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W5" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="J6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W6" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>22</v>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M7" s="0" t="n">
+      <c r="J7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W7" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>22</v>
+      <c r="D8" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" s="0" t="n">
+      <c r="J8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="V8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V8" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W8" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>22</v>
+      <c r="D9" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M9" s="0" t="n">
+      <c r="J9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V9" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W9" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" s="0" t="n">
+      <c r="J10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="N10" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="V10" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W10" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>55</v>
+      <c r="D11" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" s="0" t="n">
+      <c r="J11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="O11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="T11" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V11" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W11" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>55</v>
+      <c r="D12" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" s="0" t="n">
+      <c r="J12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="N12" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="O12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V12" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W12" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>55</v>
+      <c r="D13" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M13" s="0" t="n">
+      <c r="J13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="O13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="T13" s="0" t="n">
+      <c r="P14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="0" t="s">
-        <v>63</v>
+      <c r="W14" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -224,6 +224,15 @@
   </si>
   <si>
     <t xml:space="preserve">Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маскарпоне "Зеленая Линия ", 80%, 0,25 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зеленая Линия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098195</t>
   </si>
 </sst>
 </file>
@@ -267,9 +276,9 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,12 +339,16 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -355,10 +368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,7 +388,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1154,7 +1167,7 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -1207,6 +1220,68 @@
       </c>
       <c r="W14" s="0" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="n">
+        <v>480</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -268,16 +268,16 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -330,17 +330,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -371,14 +367,12 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -388,7 +382,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1163,11 +1157,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -1222,71 +1216,68 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="F15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="J15" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4" t="n">
+      <c r="J15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="4" t="s">
+      <c r="Q15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="S15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T15" s="4" t="s">
+      <c r="S15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="4" t="s">
+      <c r="U15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="0" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve">Выход</t>
   </si>
   <si>
+    <t xml:space="preserve">pumping_off_pause_time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Коэффициент</t>
   </si>
   <si>
@@ -100,22 +103,25 @@
     <t xml:space="preserve">Unagrande</t>
   </si>
   <si>
-    <t xml:space="preserve">[10,5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15,10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10,10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30,20]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[500,300]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[255,225]</t>
+    <t xml:space="preserve">[10,5,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15,10,15]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10,10,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,20,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[500,300,1000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[255,225,600]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,0,10]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000079142</t>
@@ -196,13 +202,13 @@
     <t xml:space="preserve">Сливки</t>
   </si>
   <si>
-    <t xml:space="preserve">[0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30,30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[250,250]</t>
+    <t xml:space="preserve">[0,0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,30,30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[250,250,250]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000090708</t>
@@ -273,12 +279,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,11 +343,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,10 +368,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,7 +386,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -441,6 +445,9 @@
       </c>
       <c r="W1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,22 +455,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0.25</v>
@@ -475,31 +482,34 @@
         <v>480</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>32</v>
+      <c r="X2" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,22 +517,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.25</v>
@@ -534,31 +544,34 @@
         <v>480</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W3" s="0" t="s">
-        <v>35</v>
+      <c r="X3" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,22 +579,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0.5</v>
@@ -593,31 +606,34 @@
         <v>480</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W4" s="0" t="s">
-        <v>37</v>
+      <c r="X4" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,22 +641,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0.25</v>
@@ -652,31 +668,34 @@
         <v>480</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W5" s="0" t="s">
-        <v>40</v>
+      <c r="X5" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,25 +703,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0.2</v>
@@ -714,31 +733,34 @@
         <v>480</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="W6" s="0" t="s">
-        <v>43</v>
+      <c r="X6" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,22 +768,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.25</v>
@@ -773,31 +795,34 @@
         <v>480</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W7" s="0" t="s">
-        <v>46</v>
+      <c r="X7" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,22 +830,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.25</v>
@@ -832,31 +857,34 @@
         <v>480</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="W8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W8" s="0" t="s">
-        <v>49</v>
+      <c r="X8" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,22 +892,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0.5</v>
@@ -891,31 +919,34 @@
         <v>480</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="0" t="s">
-        <v>52</v>
+      <c r="X9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,25 +954,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0.2</v>
@@ -953,31 +984,34 @@
         <v>480</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="W10" s="0" t="s">
-        <v>55</v>
+      <c r="X10" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,22 +1019,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0.5</v>
@@ -1012,31 +1046,34 @@
         <v>300</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W11" s="0" t="s">
-        <v>61</v>
+      <c r="X11" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,22 +1081,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0.25</v>
@@ -1071,31 +1108,34 @@
         <v>300</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W12" s="0" t="s">
-        <v>63</v>
+      <c r="X12" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,22 +1143,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0.25</v>
@@ -1130,31 +1170,34 @@
         <v>300</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W13" s="0" t="s">
-        <v>65</v>
+      <c r="X13" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,22 +1205,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0.25</v>
@@ -1189,31 +1232,34 @@
         <v>480</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="Q14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="R14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="W14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W14" s="0" t="s">
-        <v>32</v>
+      <c r="X14" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,22 +1267,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>67</v>
+      <c r="D15" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0.25</v>
@@ -1248,31 +1294,34 @@
         <v>480</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="Q15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="R15" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W15" s="0" t="s">
-        <v>70</v>
+      <c r="X15" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">[10,10,10]</t>
   </si>
   <si>
-    <t xml:space="preserve">[30,20,0]</t>
+    <t xml:space="preserve">[30,20,25]</t>
   </si>
   <si>
     <t xml:space="preserve">[500,300,1000]</t>
@@ -371,7 +371,7 @@
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
+      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1240,7 +1240,7 @@
       <c r="Q14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="R14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="S14" s="0" t="s">
@@ -1249,7 +1249,7 @@
       <c r="T14" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V14" s="0" t="n">
@@ -1302,7 +1302,7 @@
       <c r="Q15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="0" t="s">
+      <c r="R15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="S15" s="0" t="s">
@@ -1311,7 +1311,7 @@
       <c r="T15" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V15" s="0" t="n">

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="75">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">pumping_off_pause_time</t>
   </si>
   <si>
+    <t xml:space="preserve">pumping_off_2_time</t>
+  </si>
+  <si>
     <t xml:space="preserve">Коэффициент</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">[0,0,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0,0,25]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000079142</t>
@@ -248,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,12 +283,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,10 +344,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,10 +364,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T26" activeCellId="0" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,28 +445,31 @@
       <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0.25</v>
@@ -482,34 +481,37 @@
         <v>480</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X2" s="0" t="s">
-        <v>34</v>
+      <c r="Y2" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,22 +519,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.25</v>
@@ -544,34 +546,37 @@
         <v>480</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X3" s="0" t="s">
-        <v>37</v>
+      <c r="Y3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,22 +584,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0.5</v>
@@ -606,34 +611,37 @@
         <v>480</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X4" s="0" t="s">
-        <v>39</v>
+      <c r="Y4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,22 +649,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0.25</v>
@@ -668,34 +676,37 @@
         <v>480</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X5" s="0" t="s">
-        <v>42</v>
+      <c r="Y5" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,25 +714,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0.2</v>
@@ -733,34 +744,37 @@
         <v>480</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X6" s="0" t="s">
-        <v>45</v>
+      <c r="Y6" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,22 +782,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.25</v>
@@ -795,34 +809,37 @@
         <v>480</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X7" s="0" t="s">
-        <v>48</v>
+      <c r="Y7" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,22 +847,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.25</v>
@@ -857,34 +874,37 @@
         <v>480</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W8" s="0" t="n">
+      <c r="X8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X8" s="0" t="s">
-        <v>51</v>
+      <c r="Y8" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,22 +912,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0.5</v>
@@ -919,34 +939,37 @@
         <v>480</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X9" s="0" t="s">
-        <v>54</v>
+      <c r="Y9" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,25 +977,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0.2</v>
@@ -984,34 +1007,37 @@
         <v>480</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X10" s="0" t="s">
-        <v>57</v>
+      <c r="Y10" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,22 +1045,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0.5</v>
@@ -1046,34 +1072,37 @@
         <v>300</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="U11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X11" s="0" t="s">
-        <v>63</v>
+      <c r="Y11" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,22 +1110,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0.25</v>
@@ -1108,34 +1137,37 @@
         <v>300</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S12" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X12" s="0" t="s">
-        <v>65</v>
+      <c r="Y12" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,22 +1175,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0.25</v>
@@ -1170,34 +1202,37 @@
         <v>300</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="U13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X13" s="0" t="s">
-        <v>67</v>
+      <c r="Y13" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,22 +1240,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0.25</v>
@@ -1232,34 +1267,37 @@
         <v>480</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>30</v>
+        <v>30</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="S14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W14" s="0" t="n">
+      <c r="X14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X14" s="0" t="s">
-        <v>34</v>
+      <c r="Y14" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,22 +1305,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0.25</v>
@@ -1294,34 +1332,37 @@
         <v>480</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>30</v>
+        <v>30</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="S15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V15" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="X15" s="0" t="s">
-        <v>72</v>
+      <c r="Y15" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -366,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T26" activeCellId="0" sqref="T26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R21" activeCellId="0" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -79,9 +79,6 @@
     <t xml:space="preserve">Выход</t>
   </si>
   <si>
-    <t xml:space="preserve">pumping_off_pause_time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Коэффициент</t>
   </si>
   <si>
@@ -103,25 +100,22 @@
     <t xml:space="preserve">Unagrande</t>
   </si>
   <si>
-    <t xml:space="preserve">[10,5,10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[15,10,15]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10,10,10]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30,20,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[500,300,1000]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[255,225,600]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,0,10]</t>
+    <t xml:space="preserve">[10,5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[15,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10,10]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[500,300]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[255,225]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000079142</t>
@@ -202,13 +196,13 @@
     <t xml:space="preserve">Сливки</t>
   </si>
   <si>
-    <t xml:space="preserve">[0,0,0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[30,30,30]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[250,250,250]</t>
+    <t xml:space="preserve">[0,0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30,30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[250,250]</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000090708</t>
@@ -279,10 +273,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,11 +339,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,10 +364,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N25" activeCellId="0" sqref="N25"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -386,7 +382,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -446,31 +442,28 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0.25</v>
@@ -482,34 +475,31 @@
         <v>480</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="U2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,22 +507,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.25</v>
@@ -544,34 +534,31 @@
         <v>480</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>33</v>
+      <c r="U3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,22 +566,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0.5</v>
@@ -606,34 +593,31 @@
         <v>480</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>33</v>
+      <c r="U4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -641,22 +625,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0.25</v>
@@ -668,34 +652,31 @@
         <v>480</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>33</v>
+      <c r="U5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,25 +684,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0.2</v>
@@ -733,34 +714,31 @@
         <v>480</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>33</v>
+      <c r="U6" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X6" s="0" t="s">
-        <v>45</v>
+      <c r="W6" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,22 +746,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.25</v>
@@ -795,34 +773,31 @@
         <v>480</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>33</v>
+      <c r="U7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,22 +805,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.25</v>
@@ -857,34 +832,31 @@
         <v>480</v>
       </c>
       <c r="O8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="0" t="s">
-        <v>33</v>
+      <c r="U8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,22 +864,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0.5</v>
@@ -919,34 +891,31 @@
         <v>480</v>
       </c>
       <c r="O9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>33</v>
+      <c r="U9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,25 +923,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0.2</v>
@@ -984,34 +953,31 @@
         <v>480</v>
       </c>
       <c r="O10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="Q10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>33</v>
+      <c r="U10" s="0" t="n">
+        <v>1.5</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W10" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="X10" s="0" t="s">
-        <v>57</v>
+      <c r="W10" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,22 +985,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0.5</v>
@@ -1046,34 +1012,31 @@
         <v>300</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="U11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,22 +1044,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0.25</v>
@@ -1108,34 +1071,31 @@
         <v>300</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>60</v>
+      <c r="U12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,22 +1103,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0.25</v>
@@ -1170,34 +1130,31 @@
         <v>300</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="R13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>60</v>
+      <c r="U13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" s="0" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,22 +1162,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0.25</v>
@@ -1232,34 +1189,31 @@
         <v>480</v>
       </c>
       <c r="O14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R14" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T14" s="0" t="s">
+      <c r="U14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,22 +1221,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0.25</v>
@@ -1294,34 +1248,31 @@
         <v>480</v>
       </c>
       <c r="O15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="R15" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="S15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="T15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>33</v>
+      <c r="U15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="V15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -366,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R21" activeCellId="0" sqref="R21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="V15" activeCellId="0" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1311,7 +1311,7 @@
         <v>80</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>26</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -238,10 +238,7 @@
     <t xml:space="preserve">Нет</t>
   </si>
   <si>
-    <t xml:space="preserve">Маскарпоне "Зеленая Линия ", 80%, 0,25 кг, пл/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зеленая Линия</t>
+    <t xml:space="preserve">Маскарпоне "Зеленая Линия", 80%, 0,25 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000098195</t>
@@ -254,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -280,9 +277,16 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,7 +347,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,13 +374,16 @@
   </sheetPr>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V15" activeCellId="0" sqref="V15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,10 +1283,10 @@
       <c r="P14" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="2" t="s">
+      <c r="Q14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="S14" s="0" t="s">
@@ -1284,7 +1295,7 @@
       <c r="T14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="0" t="s">
         <v>34</v>
       </c>
       <c r="V14" s="0" t="s">
@@ -1300,11 +1311,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -1320,7 +1331,7 @@
         <v>26</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0.25</v>
@@ -1337,10 +1348,10 @@
       <c r="P15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="2" t="s">
+      <c r="Q15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="0" t="s">
@@ -1349,7 +1360,7 @@
       <c r="T15" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="U15" s="0" t="s">
         <v>34</v>
       </c>
       <c r="V15" s="0" t="s">
@@ -1361,13 +1372,13 @@
       <c r="X15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Y15" s="0" t="s">
-        <v>74</v>
+      <c r="Y15" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="76">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000098195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маскарпоне с шоколадом "Бонджорно", 50%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00006404</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,6 +293,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,7 +351,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,6 +365,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,10 +389,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14:A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y20" activeCellId="0" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1376,6 +1393,74 @@
         <v>73</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="77">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098398</t>
   </si>
   <si>
     <t xml:space="preserve">Маскарпоне "Зеленая Линия", 80%, 0,25 кг, пл/с</t>
@@ -257,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,6 +292,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -300,6 +309,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,7 +361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -360,15 +370,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,10 +403,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y20" activeCellId="0" sqref="Y20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1324,16 +1338,17 @@
       <c r="X14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Y14" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
+      <c r="B15" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>80</v>
@@ -1389,16 +1404,16 @@
       <c r="X15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>73</v>
+      <c r="Y15" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>74</v>
+      <c r="B16" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>50</v>
@@ -1457,8 +1472,8 @@
       <c r="X16" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="Y16" s="4" t="s">
-        <v>75</v>
+      <c r="Y16" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="151">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Вес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вес технология</t>
   </si>
   <si>
     <t xml:space="preserve">Коробки</t>
@@ -479,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -508,18 +511,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -577,7 +568,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -586,15 +577,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -611,23 +598,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -636,13 +606,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.69"/>
   </cols>
@@ -690,7 +660,7 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -711,68 +681,74 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="O2" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>25</v>
+      <c r="V2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,62 +756,65 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>28</v>
+      <c r="V3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,62 +822,65 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O4" s="4" t="n">
+      <c r="O4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P4" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="2"/>
+      <c r="U4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="0" t="s">
-        <v>30</v>
+      <c r="V4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,62 +888,65 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P5" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>33</v>
+      <c r="V5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,65 +954,68 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O6" s="4" t="n">
+      <c r="O6" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="n">
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R6" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="0" t="n">
+      <c r="S6" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="U6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>36</v>
+      <c r="V6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,62 +1023,65 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P7" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="0" t="s">
-        <v>39</v>
+      <c r="V7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,62 +1089,65 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="O8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P8" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="0" t="s">
-        <v>42</v>
+      <c r="V8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,62 +1155,65 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N9" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O9" s="4" t="n">
+      <c r="O9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="0" t="n">
+      <c r="T9" s="2"/>
+      <c r="U9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>45</v>
+      <c r="V9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,65 +1221,68 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N10" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O10" s="4" t="n">
+      <c r="O10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P10" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="n">
+      <c r="Q10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R10" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="0" t="n">
+      <c r="S10" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="U10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>48</v>
+      <c r="V10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,62 +1290,65 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M11" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="N11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5" t="n">
+      <c r="O11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="4" t="n">
         <v>1400</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="0" t="n">
+      <c r="T11" s="2"/>
+      <c r="U11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="V11" s="0" t="s">
-        <v>51</v>
+      <c r="W11" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,62 +1356,65 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="N12" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="0" t="n">
+      <c r="O12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T12" s="2"/>
+      <c r="U12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="V12" s="0" t="s">
-        <v>53</v>
+      <c r="W12" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,62 +1422,65 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="N13" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="0" t="n">
+      <c r="O13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T13" s="2"/>
+      <c r="U13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="V13" s="0" t="s">
-        <v>55</v>
+      <c r="W13" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,62 +1488,65 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N14" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="O14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P14" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P14" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>58</v>
+      <c r="V14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,62 +1554,65 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N15" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P15" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>60</v>
+      <c r="V15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,65 +1620,68 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O16" s="4" t="n">
+      <c r="O16" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P16" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4" t="n">
+      <c r="Q16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="R16" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="0" t="n">
+      <c r="S16" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="U16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="0" t="s">
-        <v>62</v>
+      <c r="V16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,62 +1689,65 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M17" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="N17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="n">
+      <c r="O17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="0" t="n">
+      <c r="T17" s="2"/>
+      <c r="U17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="V17" s="0" t="s">
-        <v>64</v>
+      <c r="W17" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,62 +1755,65 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N18" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="O18" s="4" t="n">
+      <c r="O18" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P18" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="0" t="s">
-        <v>66</v>
+      <c r="V18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,62 +1821,65 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>38</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M19" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="N19" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="O19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="0" t="n">
+      <c r="O19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="P19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>-100</v>
       </c>
-      <c r="V19" s="0" t="s">
-        <v>69</v>
+      <c r="W19" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,65 +1887,68 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>50</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N20" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="O20" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P20" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="P20" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="U20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" s="0" t="s">
-        <v>71</v>
+      <c r="V20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1926,62 +1956,65 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>80</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N21" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="O21" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P21" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="P21" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="Q21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="0" t="n">
+      <c r="T21" s="2"/>
+      <c r="U21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" s="0" t="s">
-        <v>73</v>
+      <c r="V21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,62 +2022,65 @@
         <v>20</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2" t="n">
         <v>1400</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="0" t="n">
+      <c r="T22" s="2"/>
+      <c r="U22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" s="0" t="s">
-        <v>76</v>
+      <c r="V22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2052,62 +2088,65 @@
         <v>21</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>75</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" s="0" t="s">
-        <v>78</v>
+      <c r="V23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,62 +2154,65 @@
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0.18</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>80</v>
+      <c r="V24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2178,62 +2220,65 @@
         <v>23</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>75</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T25" s="2"/>
+      <c r="U25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>83</v>
+      <c r="V25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,62 +2286,65 @@
         <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>0.18</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>85</v>
+      <c r="V26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2304,62 +2352,65 @@
         <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>0.18</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T27" s="2"/>
+      <c r="U27" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="U27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="0" t="s">
-        <v>88</v>
+      <c r="V27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,62 +2418,65 @@
         <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>0.18</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T28" s="2"/>
+      <c r="U28" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="U28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" s="0" t="s">
-        <v>90</v>
+      <c r="V28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2430,62 +2484,65 @@
         <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>0.18</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T29" s="2"/>
+      <c r="U29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" s="0" t="s">
-        <v>93</v>
+      <c r="V29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2493,62 +2550,65 @@
         <v>28</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" s="0" t="s">
-        <v>95</v>
+      <c r="V30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2556,62 +2616,65 @@
         <v>29</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T31" s="2"/>
+      <c r="U31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="0" t="s">
-        <v>97</v>
+      <c r="V31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,62 +2682,65 @@
         <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" s="0" t="s">
-        <v>99</v>
+      <c r="V32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,65 +2748,68 @@
         <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T33" s="2"/>
+      <c r="U33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" s="0" t="s">
-        <v>102</v>
+      <c r="V33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,65 +2817,68 @@
         <v>32</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T34" s="2"/>
+      <c r="U34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="0" t="s">
-        <v>105</v>
+      <c r="V34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2814,65 +2886,68 @@
         <v>33</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T35" s="2"/>
+      <c r="U35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="0" t="s">
-        <v>108</v>
+      <c r="V35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,62 +2955,65 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T36" s="2"/>
+      <c r="U36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" s="0" t="s">
-        <v>110</v>
+      <c r="V36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,62 +3021,65 @@
         <v>35</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S37" s="3"/>
-      <c r="T37" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T37" s="2"/>
+      <c r="U37" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="U37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="0" t="s">
-        <v>112</v>
+      <c r="V37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,62 +3087,65 @@
         <v>36</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S38" s="3"/>
-      <c r="T38" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T38" s="2"/>
+      <c r="U38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" s="0" t="s">
-        <v>114</v>
+      <c r="V38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,62 +3153,65 @@
         <v>37</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O39" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S39" s="3"/>
-      <c r="T39" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T39" s="2"/>
+      <c r="U39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" s="0" t="s">
-        <v>116</v>
+      <c r="V39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,62 +3219,65 @@
         <v>38</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T40" s="2"/>
+      <c r="U40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" s="0" t="s">
-        <v>118</v>
+      <c r="V40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,65 +3285,68 @@
         <v>39</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S41" s="3"/>
-      <c r="T41" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T41" s="2"/>
+      <c r="U41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" s="0" t="s">
-        <v>120</v>
+      <c r="V41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,62 +3354,65 @@
         <v>40</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>0.18</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S42" s="3"/>
-      <c r="T42" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T42" s="2"/>
+      <c r="U42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" s="0" t="s">
-        <v>123</v>
+      <c r="V42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,65 +3420,68 @@
         <v>41</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S43" s="3"/>
-      <c r="T43" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T43" s="2"/>
+      <c r="U43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" s="0" t="s">
-        <v>126</v>
+      <c r="V43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,62 +3489,65 @@
         <v>42</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S44" s="3"/>
-      <c r="T44" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T44" s="2"/>
+      <c r="U44" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="U44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" s="0" t="s">
-        <v>128</v>
+      <c r="V44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,62 +3555,65 @@
         <v>43</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S45" s="3"/>
-      <c r="T45" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T45" s="2"/>
+      <c r="U45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" s="0" t="s">
-        <v>130</v>
+      <c r="V45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3516,65 +3621,68 @@
         <v>44</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S46" s="3"/>
-      <c r="T46" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T46" s="2"/>
+      <c r="U46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" s="0" t="s">
-        <v>132</v>
+      <c r="V46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3582,62 +3690,65 @@
         <v>45</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O47" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S47" s="3"/>
-      <c r="T47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T47" s="2"/>
+      <c r="U47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="0" t="s">
-        <v>134</v>
+      <c r="V47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,62 +3756,65 @@
         <v>46</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O48" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S48" s="3"/>
-      <c r="T48" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T48" s="2"/>
+      <c r="U48" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="U48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" s="0" t="s">
-        <v>136</v>
+      <c r="V48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="0" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,65 +3822,68 @@
         <v>47</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S49" s="3"/>
-      <c r="T49" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T49" s="2"/>
+      <c r="U49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" s="0" t="s">
-        <v>139</v>
+      <c r="V49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,65 +3891,68 @@
         <v>48</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>70</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S50" s="3"/>
-      <c r="T50" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T50" s="2"/>
+      <c r="U50" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="U50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" s="0" t="s">
-        <v>141</v>
+      <c r="V50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="0" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,62 +3960,65 @@
         <v>49</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="S51" s="3"/>
-      <c r="T51" s="0" t="n">
+      <c r="T51" s="2"/>
+      <c r="U51" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="U51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" s="0" t="s">
-        <v>143</v>
+      <c r="V51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="0" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,62 +4026,65 @@
         <v>50</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O52" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P52" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S52" s="3"/>
-      <c r="T52" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T52" s="2"/>
+      <c r="U52" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="U52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" s="0" t="s">
-        <v>146</v>
+      <c r="V52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,65 +4092,68 @@
         <v>51</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>65</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>6</v>
+        <v>0.14</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O53" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P53" s="0" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="3" t="n">
-        <v>600</v>
-      </c>
-      <c r="S53" s="3"/>
-      <c r="T53" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2" t="n">
+        <v>600</v>
+      </c>
+      <c r="T53" s="2"/>
+      <c r="U53" s="0" t="n">
         <v>1.333</v>
       </c>
-      <c r="U53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V53" s="0" t="s">
-        <v>149</v>
+      <c r="V53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -608,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -740,7 +740,9 @@
       <c r="S2" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U2" s="0" t="n">
         <v>1</v>
       </c>
@@ -806,7 +808,9 @@
       <c r="S3" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T3" s="2"/>
+      <c r="T3" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U3" s="0" t="n">
         <v>1</v>
       </c>
@@ -872,7 +876,9 @@
       <c r="S4" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="T4" s="2"/>
+      <c r="T4" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U4" s="0" t="n">
         <v>1</v>
       </c>
@@ -938,7 +944,9 @@
       <c r="S5" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T5" s="2"/>
+      <c r="T5" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U5" s="0" t="n">
         <v>1</v>
       </c>
@@ -1007,7 +1015,9 @@
       <c r="S6" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T6" s="2"/>
+      <c r="T6" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U6" s="0" t="n">
         <v>1.5</v>
       </c>
@@ -1073,7 +1083,9 @@
       <c r="S7" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T7" s="2"/>
+      <c r="T7" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U7" s="0" t="n">
         <v>1</v>
       </c>
@@ -1139,7 +1151,9 @@
       <c r="S8" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T8" s="2"/>
+      <c r="T8" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U8" s="0" t="n">
         <v>1</v>
       </c>
@@ -1205,7 +1219,9 @@
       <c r="S9" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="T9" s="2"/>
+      <c r="T9" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U9" s="0" t="n">
         <v>1</v>
       </c>
@@ -1274,7 +1290,9 @@
       <c r="S10" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T10" s="2"/>
+      <c r="T10" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U10" s="0" t="n">
         <v>1.5</v>
       </c>
@@ -1340,7 +1358,9 @@
       <c r="S11" s="4" t="n">
         <v>1400</v>
       </c>
-      <c r="T11" s="2"/>
+      <c r="T11" s="2" t="n">
+        <v>300</v>
+      </c>
       <c r="U11" s="0" t="n">
         <v>1</v>
       </c>
@@ -1406,7 +1426,9 @@
       <c r="S12" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T12" s="2"/>
+      <c r="T12" s="2" t="n">
+        <v>300</v>
+      </c>
       <c r="U12" s="0" t="n">
         <v>1</v>
       </c>
@@ -1472,7 +1494,9 @@
       <c r="S13" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T13" s="2"/>
+      <c r="T13" s="2" t="n">
+        <v>300</v>
+      </c>
       <c r="U13" s="0" t="n">
         <v>1</v>
       </c>
@@ -1538,7 +1562,9 @@
       <c r="S14" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T14" s="2"/>
+      <c r="T14" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U14" s="0" t="n">
         <v>1</v>
       </c>
@@ -1604,7 +1630,9 @@
       <c r="S15" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T15" s="2"/>
+      <c r="T15" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U15" s="0" t="n">
         <v>1</v>
       </c>
@@ -1673,7 +1701,9 @@
       <c r="S16" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T16" s="2"/>
+      <c r="T16" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U16" s="0" t="n">
         <v>1.5</v>
       </c>
@@ -1739,7 +1769,9 @@
       <c r="S17" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="T17" s="2"/>
+      <c r="T17" s="2" t="n">
+        <v>300</v>
+      </c>
       <c r="U17" s="0" t="n">
         <v>1</v>
       </c>
@@ -1805,7 +1837,9 @@
       <c r="S18" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T18" s="2"/>
+      <c r="T18" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U18" s="0" t="n">
         <v>1</v>
       </c>
@@ -1871,7 +1905,9 @@
       <c r="S19" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="T19" s="2"/>
+      <c r="T19" s="2" t="n">
+        <v>300</v>
+      </c>
       <c r="U19" s="0" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1976,9 @@
       <c r="S20" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="T20" s="2"/>
+      <c r="T20" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U20" s="0" t="n">
         <v>1.5</v>
       </c>
@@ -2006,7 +2044,9 @@
       <c r="S21" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="T21" s="2"/>
+      <c r="T21" s="2" t="n">
+        <v>600</v>
+      </c>
       <c r="U21" s="0" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2112,9 @@
       <c r="S22" s="2" t="n">
         <v>1400</v>
       </c>
-      <c r="T22" s="2"/>
+      <c r="T22" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U22" s="0" t="n">
         <v>1</v>
       </c>
@@ -2136,9 +2178,11 @@
         <v>0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T23" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U23" s="0" t="n">
         <v>1</v>
       </c>
@@ -2202,9 +2246,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T24" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U24" s="0" t="n">
         <v>1</v>
       </c>
@@ -2268,9 +2314,11 @@
         <v>0</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T25" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T25" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U25" s="0" t="n">
         <v>1</v>
       </c>
@@ -2334,9 +2382,11 @@
         <v>0</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T26" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T26" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U26" s="0" t="n">
         <v>1</v>
       </c>
@@ -2400,11 +2450,13 @@
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T27" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T27" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U27" s="0" t="n">
-        <v>1.333</v>
+        <v>1.42</v>
       </c>
       <c r="V27" s="0" t="n">
         <v>0</v>
@@ -2466,11 +2518,13 @@
         <v>0</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T28" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U28" s="0" t="n">
-        <v>1.333</v>
+        <v>1.42</v>
       </c>
       <c r="V28" s="0" t="n">
         <v>0</v>
@@ -2532,9 +2586,11 @@
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T29" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U29" s="0" t="n">
         <v>1</v>
       </c>
@@ -2598,9 +2654,11 @@
         <v>0</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T30" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T30" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U30" s="0" t="n">
         <v>1</v>
       </c>
@@ -2664,9 +2722,11 @@
         <v>0</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T31" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T31" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U31" s="0" t="n">
         <v>1</v>
       </c>
@@ -2730,9 +2790,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T32" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T32" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U32" s="0" t="n">
         <v>1</v>
       </c>
@@ -2799,11 +2861,13 @@
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T33" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T33" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U33" s="0" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="V33" s="0" t="n">
         <v>0</v>
@@ -2868,11 +2932,13 @@
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T34" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T34" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U34" s="0" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="V34" s="0" t="n">
         <v>0</v>
@@ -2937,11 +3003,13 @@
         <v>0</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T35" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U35" s="0" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="V35" s="0" t="n">
         <v>0</v>
@@ -3003,9 +3071,11 @@
         <v>0</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T36" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T36" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U36" s="0" t="n">
         <v>1</v>
       </c>
@@ -3069,11 +3139,13 @@
         <v>0</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T37" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T37" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U37" s="0" t="n">
-        <v>1.333</v>
+        <v>1.42</v>
       </c>
       <c r="V37" s="0" t="n">
         <v>0</v>
@@ -3135,9 +3207,11 @@
         <v>0</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T38" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T38" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U38" s="0" t="n">
         <v>1</v>
       </c>
@@ -3201,9 +3275,11 @@
         <v>0</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T39" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T39" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U39" s="0" t="n">
         <v>1</v>
       </c>
@@ -3267,9 +3343,11 @@
         <v>0</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T40" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T40" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U40" s="0" t="n">
         <v>1</v>
       </c>
@@ -3336,11 +3414,13 @@
         <v>0</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T41" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T41" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U41" s="0" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>0</v>
@@ -3402,9 +3482,11 @@
         <v>0</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T42" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T42" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U42" s="0" t="n">
         <v>1</v>
       </c>
@@ -3471,11 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T43" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T43" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U43" s="0" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="V43" s="0" t="n">
         <v>0</v>
@@ -3537,11 +3621,13 @@
         <v>0</v>
       </c>
       <c r="S44" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T44" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T44" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U44" s="0" t="n">
-        <v>1.333</v>
+        <v>1.42</v>
       </c>
       <c r="V44" s="0" t="n">
         <v>0</v>
@@ -3603,9 +3689,11 @@
         <v>0</v>
       </c>
       <c r="S45" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T45" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T45" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U45" s="0" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3760,13 @@
         <v>0</v>
       </c>
       <c r="S46" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T46" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T46" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U46" s="0" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="V46" s="0" t="n">
         <v>0</v>
@@ -3738,9 +3828,11 @@
         <v>0</v>
       </c>
       <c r="S47" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T47" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T47" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U47" s="0" t="n">
         <v>1</v>
       </c>
@@ -3804,11 +3896,13 @@
         <v>0</v>
       </c>
       <c r="S48" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T48" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="T48" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U48" s="0" t="n">
-        <v>1.333</v>
+        <v>1.42</v>
       </c>
       <c r="V48" s="0" t="n">
         <v>0</v>
@@ -3873,11 +3967,13 @@
         <v>0</v>
       </c>
       <c r="S49" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T49" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T49" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U49" s="0" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="V49" s="0" t="n">
         <v>0</v>
@@ -3942,11 +4038,13 @@
         <v>0</v>
       </c>
       <c r="S50" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T50" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T50" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U50" s="0" t="n">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="V50" s="0" t="n">
         <v>0</v>
@@ -4010,9 +4108,11 @@
       <c r="S51" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="T51" s="2"/>
+      <c r="T51" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U51" s="0" t="n">
-        <v>1.333</v>
+        <v>1.42</v>
       </c>
       <c r="V51" s="0" t="n">
         <v>0</v>
@@ -4074,11 +4174,13 @@
         <v>0</v>
       </c>
       <c r="S52" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T52" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T52" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U52" s="0" t="n">
-        <v>1.333</v>
+        <v>1.42</v>
       </c>
       <c r="V52" s="0" t="n">
         <v>0</v>
@@ -4143,11 +4245,13 @@
         <v>0</v>
       </c>
       <c r="S53" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="T53" s="2"/>
+        <v>700</v>
+      </c>
+      <c r="T53" s="2" t="n">
+        <v>370</v>
+      </c>
       <c r="U53" s="0" t="n">
-        <v>1.333</v>
+        <v>1.42</v>
       </c>
       <c r="V53" s="0" t="n">
         <v>0</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Скорость фасовки</t>
   </si>
   <si>
-    <t xml:space="preserve">Выход</t>
+    <t xml:space="preserve">Вход</t>
   </si>
   <si>
     <t xml:space="preserve">Коэффициент</t>
@@ -609,7 +609,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
+      <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -741,10 +741,10 @@
         <v>600</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V2" s="0" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>600</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V3" s="0" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>1400</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V4" s="0" t="n">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>600</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V5" s="0" t="n">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>600</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="V6" s="0" t="n">
         <v>0</v>
@@ -1084,10 +1084,10 @@
         <v>600</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V7" s="0" t="n">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>600</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V8" s="0" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>1400</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V9" s="0" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>600</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="V10" s="0" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>1400</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U11" s="0" t="n">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>600</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>600</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U13" s="0" t="n">
         <v>1</v>
@@ -1563,10 +1563,10 @@
         <v>600</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V14" s="0" t="n">
         <v>0</v>
@@ -1631,10 +1631,10 @@
         <v>600</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V15" s="0" t="n">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         <v>600</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="V16" s="0" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>1400</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U17" s="0" t="n">
         <v>1</v>
@@ -1838,10 +1838,10 @@
         <v>600</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V18" s="0" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>600</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="U19" s="0" t="n">
         <v>1</v>
@@ -1977,10 +1977,10 @@
         <v>1400</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="V20" s="0" t="n">
         <v>0</v>
@@ -2045,10 +2045,10 @@
         <v>200</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V21" s="0" t="n">
         <v>0</v>
@@ -2113,10 +2113,10 @@
         <v>1400</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V22" s="0" t="n">
         <v>0</v>
@@ -2181,10 +2181,10 @@
         <v>800</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V23" s="0" t="n">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>800</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V24" s="0" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>800</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V25" s="0" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>800</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V26" s="0" t="n">
         <v>0</v>
@@ -2453,10 +2453,10 @@
         <v>800</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>1.42</v>
+        <v>0.525</v>
       </c>
       <c r="V27" s="0" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>800</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>1.42</v>
+        <v>0.525</v>
       </c>
       <c r="V28" s="0" t="n">
         <v>0</v>
@@ -2589,10 +2589,10 @@
         <v>800</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V29" s="0" t="n">
         <v>0</v>
@@ -2657,10 +2657,10 @@
         <v>800</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V30" s="0" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>800</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U31" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V31" s="0" t="n">
         <v>0</v>
@@ -2793,10 +2793,10 @@
         <v>700</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V32" s="0" t="n">
         <v>0</v>
@@ -2864,10 +2864,10 @@
         <v>700</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V33" s="0" t="n">
         <v>0</v>
@@ -2935,10 +2935,10 @@
         <v>700</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V34" s="0" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>700</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V35" s="0" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>700</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V36" s="0" t="n">
         <v>0</v>
@@ -3142,10 +3142,10 @@
         <v>800</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U37" s="0" t="n">
-        <v>1.42</v>
+        <v>0.525</v>
       </c>
       <c r="V37" s="0" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>700</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U38" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V38" s="0" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>800</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V39" s="0" t="n">
         <v>0</v>
@@ -3346,10 +3346,10 @@
         <v>800</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U40" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V40" s="0" t="n">
         <v>0</v>
@@ -3417,10 +3417,10 @@
         <v>700</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>0</v>
@@ -3485,10 +3485,10 @@
         <v>800</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V42" s="0" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>700</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U43" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V43" s="0" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>800</v>
       </c>
       <c r="T44" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U44" s="0" t="n">
-        <v>1.42</v>
+        <v>0.525</v>
       </c>
       <c r="V44" s="0" t="n">
         <v>0</v>
@@ -3692,10 +3692,10 @@
         <v>700</v>
       </c>
       <c r="T45" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U45" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V45" s="0" t="n">
         <v>0</v>
@@ -3763,10 +3763,10 @@
         <v>700</v>
       </c>
       <c r="T46" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U46" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V46" s="0" t="n">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>800</v>
       </c>
       <c r="T47" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U47" s="0" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="V47" s="0" t="n">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>800</v>
       </c>
       <c r="T48" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U48" s="0" t="n">
-        <v>1.42</v>
+        <v>0.525</v>
       </c>
       <c r="V48" s="0" t="n">
         <v>0</v>
@@ -3970,10 +3970,10 @@
         <v>700</v>
       </c>
       <c r="T49" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U49" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V49" s="0" t="n">
         <v>0</v>
@@ -4041,10 +4041,10 @@
         <v>700</v>
       </c>
       <c r="T50" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U50" s="0" t="n">
-        <v>1.07</v>
+        <v>0.395</v>
       </c>
       <c r="V50" s="0" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>200</v>
       </c>
       <c r="T51" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U51" s="0" t="n">
-        <v>1.42</v>
+        <v>0.525</v>
       </c>
       <c r="V51" s="0" t="n">
         <v>0</v>
@@ -4177,10 +4177,10 @@
         <v>700</v>
       </c>
       <c r="T52" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U52" s="0" t="n">
-        <v>1.42</v>
+        <v>0.525</v>
       </c>
       <c r="V52" s="0" t="n">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>700</v>
       </c>
       <c r="T53" s="2" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="U53" s="0" t="n">
-        <v>1.42</v>
+        <v>0.525</v>
       </c>
       <c r="V53" s="0" t="n">
         <v>0</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -513,7 +513,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +524,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -568,7 +574,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -589,6 +595,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,6 +616,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -608,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S53" activeCellId="0" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1722,7 +1800,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>23</v>
@@ -2397,139 +2475,139 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="0" t="s">
+      <c r="G27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="6" t="n">
         <v>0.18</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K27" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="2" t="n">
+      <c r="K27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T27" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U27" s="0" t="n">
+      <c r="T27" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U27" s="6" t="n">
         <v>0.525</v>
       </c>
-      <c r="V27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="0" t="s">
+      <c r="V27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="28" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="0" t="s">
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="0" t="s">
+      <c r="G28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="6" t="n">
         <v>0.18</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K28" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2" t="n">
+      <c r="K28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T28" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U28" s="0" t="n">
+      <c r="T28" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U28" s="6" t="n">
         <v>0.525</v>
       </c>
-      <c r="V28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="0" t="s">
+      <c r="V28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3086,71 +3164,71 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="37" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="D37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="0" t="s">
+      <c r="G37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K37" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2" t="n">
+      <c r="K37" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T37" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U37" s="0" t="n">
+      <c r="T37" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U37" s="6" t="n">
         <v>0.525</v>
       </c>
-      <c r="V37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="0" t="s">
+      <c r="V37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3568,71 +3646,71 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="44" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="0" t="s">
+      <c r="G44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K44" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2" t="n">
+      <c r="K44" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T44" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U44" s="0" t="n">
+      <c r="T44" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U44" s="6" t="n">
         <v>0.525</v>
       </c>
-      <c r="V44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="0" t="s">
+      <c r="V44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3843,71 +3921,71 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="48" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="0" t="s">
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="0" t="s">
+      <c r="G48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K48" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2" t="n">
+      <c r="K48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="T48" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U48" s="0" t="n">
+      <c r="T48" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U48" s="6" t="n">
         <v>0.525</v>
       </c>
-      <c r="V48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="0" t="s">
+      <c r="V48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4100,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R51" s="0" t="n">
         <v>0</v>
@@ -4121,142 +4199,142 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="0" t="s">
+    <row r="52" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="0" t="s">
+      <c r="D52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="K52" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2" t="n">
+      <c r="K52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L52" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O52" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="6" t="n">
         <v>700</v>
       </c>
-      <c r="T52" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U52" s="0" t="n">
+      <c r="T52" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U52" s="6" t="n">
         <v>0.525</v>
       </c>
-      <c r="V52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" s="0" t="s">
+      <c r="V52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="53" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="D53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="0" t="s">
+      <c r="G53" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="K53" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L53" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="R53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2" t="n">
+      <c r="K53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="O53" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="P53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="R53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="6" t="n">
         <v>700</v>
       </c>
-      <c r="T53" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U53" s="0" t="n">
+      <c r="T53" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U53" s="6" t="n">
         <v>0.525</v>
       </c>
-      <c r="V53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" s="0" t="s">
+      <c r="V53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="6" t="s">
         <v>150</v>
       </c>
     </row>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -686,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S53" activeCellId="0" sqref="S53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q29" activeCellId="0" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T2" s="2" t="n">
         <v>1000</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T3" s="2" t="n">
         <v>1000</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T5" s="2" t="n">
         <v>1000</v>
@@ -1091,7 +1091,7 @@
         <v>25</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T6" s="2" t="n">
         <v>1000</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T7" s="2" t="n">
         <v>1000</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T8" s="2" t="n">
         <v>1000</v>
@@ -1366,7 +1366,7 @@
         <v>25</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T10" s="2" t="n">
         <v>1000</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T14" s="2" t="n">
         <v>1000</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T15" s="2" t="n">
         <v>1000</v>
@@ -1777,7 +1777,7 @@
         <v>25</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T16" s="2" t="n">
         <v>1000</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="T17" s="2" t="n">
         <v>1000</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T18" s="2" t="n">
         <v>1000</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>1400</v>
@@ -2936,7 +2936,7 @@
         <v>20</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S33" s="2" t="n">
         <v>700</v>
@@ -3007,7 +3007,7 @@
         <v>20</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S34" s="2" t="n">
         <v>700</v>
@@ -3078,7 +3078,7 @@
         <v>20</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S35" s="2" t="n">
         <v>700</v>
@@ -3489,7 +3489,7 @@
         <v>20</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S41" s="2" t="n">
         <v>700</v>
@@ -3628,7 +3628,7 @@
         <v>20</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S43" s="2" t="n">
         <v>700</v>
@@ -3835,7 +3835,7 @@
         <v>20</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S46" s="2" t="n">
         <v>700</v>
@@ -4042,7 +4042,7 @@
         <v>20</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S49" s="2" t="n">
         <v>700</v>
@@ -4113,7 +4113,7 @@
         <v>20</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S50" s="2" t="n">
         <v>700</v>
@@ -4320,7 +4320,7 @@
         <v>30</v>
       </c>
       <c r="R53" s="6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S53" s="6" t="n">
         <v>700</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -686,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q29" activeCellId="0" sqref="Q29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V70" activeCellId="0" sqref="V70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2534,7 +2534,7 @@
         <v>1000</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.525</v>
+        <v>0.7</v>
       </c>
       <c r="V27" s="6" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>1000</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.525</v>
+        <v>0.7</v>
       </c>
       <c r="V28" s="6" t="n">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>1000</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.525</v>
+        <v>0.7</v>
       </c>
       <c r="V37" s="6" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>1000</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.525</v>
+        <v>0.7</v>
       </c>
       <c r="V44" s="6" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>1000</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.525</v>
+        <v>0.7</v>
       </c>
       <c r="V48" s="6" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>1000</v>
       </c>
       <c r="U51" s="0" t="n">
-        <v>0.525</v>
+        <v>0.7</v>
       </c>
       <c r="V51" s="0" t="n">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>1000</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.525</v>
+        <v>0.37</v>
       </c>
       <c r="V52" s="6" t="n">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>1000</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.525</v>
+        <v>0.395</v>
       </c>
       <c r="V53" s="6" t="n">
         <v>0</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -686,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V70" activeCellId="0" sqref="V70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S21" activeCellId="0" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>1400</v>
+        <v>1680</v>
       </c>
       <c r="T11" s="2" t="n">
         <v>1000</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="T12" s="2" t="n">
         <v>1000</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="T13" s="2" t="n">
         <v>1000</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>600</v>
+        <v>1680</v>
       </c>
       <c r="T17" s="2" t="n">
         <v>1000</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="T19" s="2" t="n">
         <v>1000</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -686,8 +686,8 @@
   </sheetPr>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S21" activeCellId="0" sqref="S21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O54" activeCellId="0" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O52" s="6" t="n">
         <v>60</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O53" s="6" t="n">
         <v>60</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -513,7 +513,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +524,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -574,7 +580,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -591,10 +597,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -604,6 +606,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -632,7 +650,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -686,8 +704,8 @@
   </sheetPr>
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O54" activeCellId="0" sqref="O54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1381,207 +1399,207 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" s="6" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="G11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="n">
+      <c r="K11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7" t="n">
+        <v>1680</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>1680</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U11" s="0" t="n">
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V12" s="5" t="n">
         <v>-100</v>
       </c>
-      <c r="W11" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="W12" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="G13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J13" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="P12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="0" t="n">
+      <c r="K13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5" t="n">
         <v>1250</v>
       </c>
-      <c r="T12" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U12" s="0" t="n">
+      <c r="T13" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V13" s="5" t="n">
         <v>-100</v>
       </c>
-      <c r="W12" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>38</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="P13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>1250</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" s="0" t="n">
-        <v>-100</v>
-      </c>
-      <c r="W13" s="0" t="s">
+      <c r="W13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1792,71 +1810,71 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="0" t="s">
+      <c r="G17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="P17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="0" t="n">
+      <c r="K17" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5" t="n">
         <v>1680</v>
       </c>
-      <c r="T17" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U17" s="0" t="n">
+      <c r="T17" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U17" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17" s="5" t="n">
         <v>-100</v>
       </c>
-      <c r="W17" s="0" t="s">
+      <c r="W17" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1928,71 +1946,71 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="0" t="s">
+      <c r="G19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="5" t="n">
         <v>0.25</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="K19" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="P19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="0" t="n">
+      <c r="K19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5" t="n">
         <v>1250</v>
       </c>
-      <c r="T19" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U19" s="0" t="n">
+      <c r="T19" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19" s="5" t="n">
         <v>-100</v>
       </c>
-      <c r="W19" s="0" t="s">
+      <c r="W19" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2475,139 +2493,139 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+    <row r="27" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="D27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="9" t="n">
         <v>0.18</v>
       </c>
-      <c r="J27" s="6" t="n">
+      <c r="J27" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="K27" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="M27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6" t="n">
+      <c r="K27" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="P27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6" t="n">
+      <c r="P27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="R27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="6" t="n">
+      <c r="R27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="9" t="n">
         <v>800</v>
       </c>
-      <c r="T27" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U27" s="6" t="n">
+      <c r="T27" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U27" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="V27" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="6" t="s">
+      <c r="V27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="D28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="G28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="9" t="n">
         <v>0.18</v>
       </c>
-      <c r="J28" s="6" t="n">
+      <c r="J28" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="K28" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L28" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="M28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6" t="n">
+      <c r="K28" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="P28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6" t="n">
+      <c r="P28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="R28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="6" t="n">
+      <c r="R28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="9" t="n">
         <v>800</v>
       </c>
-      <c r="T28" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U28" s="6" t="n">
+      <c r="T28" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U28" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="V28" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="6" t="s">
+      <c r="V28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3164,71 +3182,71 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="n">
+    <row r="37" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="6" t="n">
+      <c r="C37" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="D37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="G37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="6" t="n">
+      <c r="I37" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="J37" s="6" t="n">
+      <c r="J37" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="K37" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L37" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="M37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6" t="n">
+      <c r="K37" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="P37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6" t="n">
+      <c r="P37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="R37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" s="6" t="n">
+      <c r="R37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="9" t="n">
         <v>800</v>
       </c>
-      <c r="T37" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U37" s="6" t="n">
+      <c r="T37" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U37" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="V37" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="6" t="s">
+      <c r="V37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3646,71 +3664,71 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+    <row r="44" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="6" t="n">
+      <c r="C44" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="6" t="s">
+      <c r="D44" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="G44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="6" t="n">
+      <c r="I44" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="J44" s="6" t="n">
+      <c r="J44" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="K44" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L44" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="M44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="6" t="n">
+      <c r="K44" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="P44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="6" t="n">
+      <c r="P44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="R44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="6" t="n">
+      <c r="R44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9" t="n">
         <v>800</v>
       </c>
-      <c r="T44" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U44" s="6" t="n">
+      <c r="T44" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U44" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="V44" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" s="6" t="s">
+      <c r="V44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3921,71 +3939,71 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
+    <row r="48" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="6" t="n">
+      <c r="C48" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="6" t="s">
+      <c r="D48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="6" t="s">
+      <c r="G48" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="6" t="n">
+      <c r="I48" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="J48" s="6" t="n">
+      <c r="J48" s="9" t="n">
         <v>0.2</v>
       </c>
-      <c r="K48" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L48" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="M48" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6" t="n">
+      <c r="K48" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="O48" s="6" t="n">
+      <c r="O48" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="P48" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="6" t="n">
+      <c r="P48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="R48" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="6" t="n">
+      <c r="R48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="9" t="n">
         <v>800</v>
       </c>
-      <c r="T48" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U48" s="6" t="n">
+      <c r="T48" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U48" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="V48" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="6" t="s">
+      <c r="V48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="9" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4199,142 +4217,142 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="6" t="s">
+    <row r="52" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="6" t="n">
+      <c r="C52" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="D52" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="6" t="s">
+      <c r="G52" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I52" s="6" t="n">
+      <c r="I52" s="9" t="n">
         <v>0.14</v>
       </c>
-      <c r="J52" s="6" t="n">
+      <c r="J52" s="9" t="n">
         <v>0.14</v>
       </c>
-      <c r="K52" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L52" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="M52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="O52" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="P52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="R52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" s="6" t="n">
+      <c r="K52" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L52" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O52" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="P52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="R52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="9" t="n">
         <v>700</v>
       </c>
-      <c r="T52" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U52" s="6" t="n">
+      <c r="T52" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U52" s="9" t="n">
         <v>0.37</v>
       </c>
-      <c r="V52" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W52" s="6" t="s">
+      <c r="V52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="n">
+    <row r="53" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="6" t="n">
+      <c r="C53" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G53" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" s="6" t="s">
+      <c r="G53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I53" s="6" t="n">
+      <c r="I53" s="9" t="n">
         <v>0.14</v>
       </c>
-      <c r="J53" s="6" t="n">
+      <c r="J53" s="9" t="n">
         <v>0.14</v>
       </c>
-      <c r="K53" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L53" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="M53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="O53" s="6" t="n">
-        <v>60</v>
-      </c>
-      <c r="P53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="R53" s="6" t="n">
+      <c r="K53" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O53" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="P53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="R53" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="S53" s="6" t="n">
+      <c r="S53" s="9" t="n">
         <v>700</v>
       </c>
-      <c r="T53" s="6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U53" s="6" t="n">
+      <c r="T53" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U53" s="9" t="n">
         <v>0.395</v>
       </c>
-      <c r="V53" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" s="6" t="s">
+      <c r="V53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="9" t="s">
         <v>150</v>
       </c>
     </row>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="165">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">00-00008812</t>
   </si>
   <si>
-    <t xml:space="preserve">Кремчиз с огурцом «Вкусвилл», 70%, 0,14 кг, пл/с</t>
+    <t xml:space="preserve">Кремчиз с огурцом «ВкусВилл», 70%, 0,14 кг, пл/с</t>
   </si>
   <si>
     <t xml:space="preserve">00-00008892</t>
@@ -473,6 +473,48 @@
   </si>
   <si>
     <t xml:space="preserve">00-00010059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный с паприкой "Pretto", 65%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный с томатами "Pretto", 65%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный с травами "Pretto", 65%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный с огурцом "Pretto", 65%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный "Pretto", 65%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный "Pretto", 65%, 0,25 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00010939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Робиола "Pretto", 65%, 0,18 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011035</t>
   </si>
 </sst>
 </file>
@@ -482,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -509,6 +551,13 @@
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -580,7 +629,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -622,6 +671,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -702,10 +759,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4225,7 +4282,7 @@
         <v>145</v>
       </c>
       <c r="C52" s="9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>23</v>
@@ -4293,7 +4350,7 @@
         <v>148</v>
       </c>
       <c r="C53" s="9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>23</v>
@@ -4354,6 +4411,496 @@
       </c>
       <c r="W53" s="9" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L54" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O54" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R54" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="S54" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="T54" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U54" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J55" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O55" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R55" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="S55" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="T55" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U55" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J56" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L56" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O56" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R56" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="S56" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="T56" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U56" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L57" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O57" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R57" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="S57" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="T57" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U57" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L58" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O58" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="T58" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O59" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="T59" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2" t="n">
+        <v>800</v>
+      </c>
+      <c r="T60" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" s="11" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="173">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -515,6 +515,30 @@
   </si>
   <si>
     <t xml:space="preserve">00-00011035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный с травами "Вкусвилл", 65%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный "Вкусвилл", 65%, 0,25 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный "Вкусвилл", 65%, 0,14 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маскарпоне с шоколадом "Бонджорно", 50%, 0,18 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011040</t>
   </si>
 </sst>
 </file>
@@ -759,10 +783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4019,10 +4043,10 @@
         <v>28</v>
       </c>
       <c r="I48" s="9" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="J48" s="9" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="K48" s="9" t="n">
         <v>6</v>
@@ -4214,7 +4238,7 @@
         <v>143</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>23</v>
@@ -4901,6 +4925,286 @@
       </c>
       <c r="W60" s="11" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L61" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M61" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O61" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P61" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R61" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="S61" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="T61" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U61" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V61" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L62" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O62" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="T62" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U62" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L63" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O63" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="P63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="T63" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U63" s="9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P64" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="S64" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="T64" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U64" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" s="11" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="177">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t xml:space="preserve">00-00011040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маскарпоне ПРО "Pretto", 80%, 2,5 кг, пл/в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кремчиз ПРО "Pretto", 60%, 2,5 кг, пл/в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00011113</t>
   </si>
 </sst>
 </file>
@@ -548,7 +560,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -584,6 +596,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -653,7 +671,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -703,6 +721,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,10 +805,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5205,6 +5227,142 @@
       </c>
       <c r="W64" s="11" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="T65" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U65" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="T66" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -419,7 +419,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -455,12 +455,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -519,7 +513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,12 +550,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -587,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W47" activeCellId="0" sqref="W47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1376,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>0</v>
@@ -1385,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>0</v>
@@ -1400,7 +1390,7 @@
         <v>1400</v>
       </c>
       <c r="T12" s="4" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="U12" s="4" t="n">
         <v>0.5</v>
@@ -1512,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>0</v>
@@ -1521,7 +1511,7 @@
         <v>25</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>0</v>
@@ -1536,7 +1526,7 @@
         <v>1200</v>
       </c>
       <c r="T14" s="4" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="U14" s="4" t="n">
         <v>0.5</v>
@@ -1580,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0</v>
@@ -1589,7 +1579,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>0</v>
@@ -1604,7 +1594,7 @@
         <v>1200</v>
       </c>
       <c r="T15" s="4" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="U15" s="4" t="n">
         <v>0.5</v>
@@ -1716,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>0</v>
@@ -1725,7 +1715,7 @@
         <v>25</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>0</v>
@@ -1740,7 +1730,7 @@
         <v>1000</v>
       </c>
       <c r="T17" s="4" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="U17" s="4" t="n">
         <v>0.5</v>
@@ -1784,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>0</v>
@@ -1793,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>0</v>
@@ -1808,7 +1798,7 @@
         <v>1200</v>
       </c>
       <c r="T18" s="4" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="U18" s="4" t="n">
         <v>0.5</v>
@@ -3062,7 +3052,7 @@
         <v>300</v>
       </c>
       <c r="T36" s="4" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="U36" s="4" t="n">
         <v>0.7</v>
@@ -3174,7 +3164,7 @@
         <v>6</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M38" s="4" t="n">
         <v>0</v>
@@ -3183,7 +3173,7 @@
         <v>25</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>0</v>
@@ -3198,7 +3188,7 @@
         <v>1200</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="U38" s="4" t="n">
         <v>0.5</v>
@@ -3382,7 +3372,7 @@
         <v>6</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M41" s="4" t="n">
         <v>0</v>
@@ -3391,7 +3381,7 @@
         <v>25</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>0</v>
@@ -3406,7 +3396,7 @@
         <v>1200</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="U41" s="4" t="n">
         <v>0.5</v>
@@ -3485,7 +3475,7 @@
       <c r="V42" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W42" s="10" t="s">
+      <c r="W42" s="7" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3556,7 +3546,7 @@
       <c r="V43" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="W43" s="11" t="s">
+      <c r="W43" s="10" t="s">
         <v>129</v>
       </c>
     </row>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -634,7 +634,7 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q42" activeCellId="0" sqref="Q42"/>
+      <selection pane="topLeft" activeCell="S36" activeCellId="0" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3109,10 +3109,10 @@
         <v>300</v>
       </c>
       <c r="T36" s="3" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="U36" s="3" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="V36" s="3" t="n">
         <v>0</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="135">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -410,6 +410,21 @@
   </si>
   <si>
     <t xml:space="preserve">00-00011199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сыр мягкий Маскарпоне массовой долей жира в сухом веществе 80%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рбили со сванской солью "Умалат", 60%, 0,18 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012540</t>
   </si>
 </sst>
 </file>
@@ -419,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -448,6 +463,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -517,7 +538,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -551,6 +572,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -631,16 +660,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S36" activeCellId="0" sqref="S36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.94"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,7 +3388,7 @@
         <v>6</v>
       </c>
       <c r="L40" s="8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M40" s="8" t="n">
         <v>0</v>
@@ -3381,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T40" s="8" t="n">
         <v>1200</v>
@@ -3604,6 +3632,145 @@
       </c>
       <c r="W43" s="0" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -469,6 +469,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -662,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44:I44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2155,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R22" s="8" t="n">
         <v>0</v>
@@ -2226,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R23" s="8" t="n">
         <v>25</v>
@@ -2297,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R24" s="8" t="n">
         <v>25</v>
@@ -2368,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R25" s="8" t="n">
         <v>25</v>
@@ -2439,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R26" s="8" t="n">
         <v>25</v>
@@ -2510,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R27" s="8" t="n">
         <v>25</v>
@@ -2578,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R28" s="8" t="n">
         <v>0</v>
@@ -2646,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R29" s="8" t="n">
         <v>0</v>
@@ -2785,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R31" s="8" t="n">
         <v>25</v>
@@ -2853,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R32" s="8" t="n">
         <v>0</v>
@@ -2921,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R33" s="8" t="n">
         <v>0</v>
@@ -3403,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R40" s="8" t="n">
         <v>0</v>
@@ -3492,7 +3493,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -3548,13 +3549,13 @@
         <v>25</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T42" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U42" s="0" t="n">
-        <v>0.7</v>
+        <v>800</v>
+      </c>
+      <c r="T42" s="8" t="n">
+        <v>1150</v>
+      </c>
+      <c r="U42" s="8" t="n">
+        <v>0.522</v>
       </c>
       <c r="V42" s="0" t="n">
         <v>0</v>
@@ -3563,7 +3564,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -3619,13 +3620,13 @@
         <v>25</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T43" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U43" s="0" t="n">
-        <v>0.7</v>
+        <v>800</v>
+      </c>
+      <c r="T43" s="8" t="n">
+        <v>1150</v>
+      </c>
+      <c r="U43" s="8" t="n">
+        <v>0.522</v>
       </c>
       <c r="V43" s="0" t="n">
         <v>0</v>
@@ -3689,7 +3690,7 @@
       <c r="S44" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="T44" s="0" t="n">
+      <c r="T44" s="8" t="n">
         <v>1000</v>
       </c>
       <c r="U44" s="0" t="n">
@@ -3758,13 +3759,13 @@
         <v>25</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="T45" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U45" s="0" t="n">
-        <v>0.7</v>
+        <v>800</v>
+      </c>
+      <c r="T45" s="8" t="n">
+        <v>1150</v>
+      </c>
+      <c r="U45" s="8" t="n">
+        <v>0.522</v>
       </c>
       <c r="V45" s="0" t="n">
         <v>0</v>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="137">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00012540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный "Pretto", 55%, 0,4 кг, пл/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00012999</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -470,6 +476,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -539,7 +551,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -581,6 +593,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,10 +677,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W53" activeCellId="0" sqref="W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3773,6 +3789,76 @@
       <c r="W45" s="10" t="s">
         <v>134</v>
       </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="O46" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="P46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="R46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="T46" s="8" t="n">
+        <v>1350</v>
+      </c>
+      <c r="U46" s="8" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="V46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="X46" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="139">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t xml:space="preserve">00-00012999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сливочный "Pretto", 50%, 0,45 кг, пл/с (крем-основа)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013109</t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,7 +602,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,10 +687,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X46"/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W53" activeCellId="0" sqref="W53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W51" activeCellId="0" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3859,6 +3869,74 @@
         <v>136</v>
       </c>
       <c r="X46" s="8"/>
+    </row>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>1400</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="12" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -437,6 +437,18 @@
   </si>
   <si>
     <t xml:space="preserve">00-00013109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный сливочный «LiebenDorf», 60%, 0,14 кг, п/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Творожный с зеленью «LiebenDorf», 60%, 0,14 кг, п/с  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00-00013409</t>
   </si>
 </sst>
 </file>
@@ -446,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -482,12 +494,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -557,7 +563,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -603,10 +609,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -687,10 +689,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W51" activeCellId="0" sqref="W51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3934,9 +3936,151 @@
       <c r="V47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W47" s="12" t="s">
+      <c r="W47" s="10" t="s">
         <v>138</v>
       </c>
+    </row>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M48" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="O48" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="P48" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="R48" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="8" t="n">
+        <v>800</v>
+      </c>
+      <c r="T48" s="8" t="n">
+        <v>1150</v>
+      </c>
+      <c r="U48" s="8" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="V48" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="X48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J49" s="8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="O49" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="P49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="R49" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="S49" s="8" t="n">
+        <v>800</v>
+      </c>
+      <c r="T49" s="8" t="n">
+        <v>1150</v>
+      </c>
+      <c r="U49" s="8" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="V49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="X49" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="141">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -431,12 +431,6 @@
   </si>
   <si>
     <t xml:space="preserve">00-00012999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сливочный "Pretto", 50%, 0,45 кг, пл/с (крем-основа)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00-00013109</t>
   </si>
   <si>
     <t xml:space="preserve">Творожный сливочный «LiebenDorf», 60%, 0,14 кг, п/с</t>
@@ -689,10 +683,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3874,75 +3868,77 @@
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="P47" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="T47" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="U47" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="10" t="s">
+      <c r="C47" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J47" s="8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="M47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="O47" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="P47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="R47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="8" t="n">
+        <v>800</v>
+      </c>
+      <c r="T47" s="8" t="n">
+        <v>1150</v>
+      </c>
+      <c r="U47" s="8" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="V47" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X47" s="8"/>
+    </row>
+    <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>139</v>
@@ -3953,7 +3949,9 @@
       <c r="D48" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="F48" s="8" t="s">
         <v>79</v>
       </c>
@@ -3991,7 +3989,7 @@
         <v>30</v>
       </c>
       <c r="R48" s="8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S48" s="8" t="n">
         <v>800</v>
@@ -4010,78 +4008,7 @@
       </c>
       <c r="X48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I49" s="8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J49" s="8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K49" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L49" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M49" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O49" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P49" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="R49" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="S49" s="8" t="n">
-        <v>800</v>
-      </c>
-      <c r="T49" s="8" t="n">
-        <v>1150</v>
-      </c>
-      <c r="U49" s="8" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="V49" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="X49" s="8"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/app/data/static/params/mascarpone.xlsx
+++ b/app/data/static/params/mascarpone.xlsx
@@ -452,7 +452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -482,38 +482,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFAA95"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -557,7 +532,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -566,43 +541,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -615,66 +554,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFE8F2A1"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFFAA95"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -683,16 +562,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X1048576"/>
+  <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.94"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -1442,1526 +1318,1526 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="3" t="n">
+      <c r="G12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="K12" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" s="3" t="n">
+      <c r="K12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O12" s="3" t="n">
+      <c r="M12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O12" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="P12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="n">
+      <c r="P12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="n">
+      <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="T12" s="3" t="n">
+      <c r="T12" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
+      <c r="V12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="6" t="n">
+      <c r="G13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="J13" s="6" t="n">
+      <c r="J13" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K13" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6" t="n">
+      <c r="K13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="6" t="n">
+      <c r="R13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="n">
         <v>1296</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="T13" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="U13" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="V13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6" t="s">
+      <c r="V13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K14" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" s="3" t="n">
+      <c r="K14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O14" s="3" t="n">
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="P14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="n">
+      <c r="P14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="n">
+      <c r="R14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="T14" s="3" t="n">
+      <c r="T14" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="3" t="n">
+      <c r="G15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K15" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" s="3" t="n">
+      <c r="K15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O15" s="3" t="n">
+      <c r="M15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O15" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="P15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="n">
+      <c r="P15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="n">
+      <c r="R15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="T15" s="3" t="n">
+      <c r="T15" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U15" s="4" t="n">
+      <c r="U15" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3" t="s">
+      <c r="V15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="6" t="n">
+      <c r="G16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K16" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="P16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6" t="n">
+      <c r="K16" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="6" t="n">
+      <c r="R16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="U16" s="6" t="n">
+      <c r="U16" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="V16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6" t="s">
+      <c r="V16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="3" t="n">
+      <c r="G17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K17" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" s="3" t="n">
+      <c r="K17" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O17" s="3" t="n">
+      <c r="M17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O17" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="P17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="n">
+      <c r="P17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="n">
+      <c r="R17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T17" s="3" t="n">
+      <c r="T17" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U17" s="4" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
+      <c r="V17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="J18" s="3" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K18" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" s="3" t="n">
+      <c r="K18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O18" s="3" t="n">
+      <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O18" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="P18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="n">
+      <c r="P18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="n">
+      <c r="R18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="T18" s="3" t="n">
+      <c r="T18" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U18" s="4" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3" t="s">
+      <c r="V18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K19" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="M19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O19" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="P19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3" t="n">
+      <c r="K19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R19" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="S19" s="3" t="n">
+      <c r="R19" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S19" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T19" s="3" t="n">
+      <c r="T19" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U19" s="3" t="n">
+      <c r="U19" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3" t="s">
+      <c r="V19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K20" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O20" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="P20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="n">
+      <c r="K20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R20" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="S20" s="3" t="n">
+      <c r="R20" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S20" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T20" s="3" t="n">
+      <c r="T20" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U20" s="3" t="n">
+      <c r="U20" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
+      <c r="V20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K21" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O21" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="P21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="n">
+      <c r="K21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R21" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="S21" s="3" t="n">
+      <c r="R21" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S21" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3" t="s">
+      <c r="V21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="D22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J22" s="8" t="n">
+      <c r="J22" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K22" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L22" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O22" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8" t="n">
+      <c r="K22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" s="8" t="n">
+      <c r="R22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T22" s="8" t="n">
+      <c r="T22" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U22" s="8" t="n">
+      <c r="U22" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V22" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="8" t="s">
+      <c r="V22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K23" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O23" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8" t="n">
+      <c r="K23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R23" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="S23" s="8" t="n">
+      <c r="R23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S23" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T23" s="8" t="n">
+      <c r="T23" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U23" s="8" t="n">
+      <c r="U23" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V23" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="8" t="s">
+      <c r="V23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J24" s="8" t="n">
+      <c r="J24" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K24" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L24" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O24" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8" t="n">
+      <c r="K24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R24" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="S24" s="8" t="n">
+      <c r="R24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S24" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T24" s="8" t="n">
+      <c r="T24" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U24" s="8" t="n">
+      <c r="U24" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="8" t="s">
+      <c r="V24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="D25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K25" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L25" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O25" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8" t="n">
+      <c r="K25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R25" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="S25" s="8" t="n">
+      <c r="R25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S25" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T25" s="8" t="n">
+      <c r="T25" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U25" s="8" t="n">
+      <c r="U25" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V25" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" s="8" t="s">
+      <c r="V25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="0" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J26" s="8" t="n">
+      <c r="J26" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K26" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L26" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O26" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="8" t="n">
+      <c r="K26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R26" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="S26" s="8" t="n">
+      <c r="R26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S26" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T26" s="8" t="n">
+      <c r="T26" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U26" s="8" t="n">
+      <c r="U26" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="8" t="s">
+      <c r="V26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C27" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K27" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L27" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O27" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="8" t="n">
+      <c r="K27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R27" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="S27" s="8" t="n">
+      <c r="R27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S27" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T27" s="8" t="n">
+      <c r="T27" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U27" s="8" t="n">
+      <c r="U27" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V27" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="8" t="s">
+      <c r="V27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="D28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J28" s="8" t="n">
+      <c r="J28" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K28" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L28" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O28" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="8" t="n">
+      <c r="K28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" s="8" t="n">
+      <c r="R28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T28" s="8" t="n">
+      <c r="T28" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U28" s="8" t="n">
+      <c r="U28" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="8" t="s">
+      <c r="V28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="D29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="8" t="n">
+      <c r="I29" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="J29" s="8" t="n">
+      <c r="J29" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K29" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L29" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O29" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8" t="n">
+      <c r="K29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" s="8" t="n">
+      <c r="R29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="T29" s="8" t="n">
+      <c r="T29" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U29" s="8" t="n">
+      <c r="U29" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V29" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="8" t="s">
+      <c r="V29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="D30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="G30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="J30" s="6" t="n">
+      <c r="J30" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K30" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L30" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="M30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6" t="n">
-        <v>25</v>
-      </c>
-      <c r="O30" s="6" t="n">
-        <v>40</v>
-      </c>
-      <c r="P30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6" t="n">
+      <c r="K30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" s="6" t="n">
+      <c r="R30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="0" t="n">
         <v>1296</v>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="T30" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="U30" s="6" t="n">
+      <c r="U30" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="V30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="6" t="s">
+      <c r="V30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="0" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r="I31" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J31" s="8" t="n">
+      <c r="J31" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K31" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L31" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M31" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O31" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P31" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8" t="n">
+      <c r="K31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R31" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="S31" s="8" t="n">
+      <c r="R31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S31" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T31" s="8" t="n">
+      <c r="T31" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U31" s="8" t="n">
+      <c r="U31" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V31" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="8" t="s">
+      <c r="V31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="D32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I32" s="8" t="n">
+      <c r="I32" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="J32" s="8" t="n">
+      <c r="J32" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K32" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L32" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M32" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O32" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P32" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8" t="n">
+      <c r="K32" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R32" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8" t="n">
+      <c r="R32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="T32" s="8" t="n">
+      <c r="T32" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U32" s="8" t="n">
+      <c r="U32" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V32" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="8" t="s">
+      <c r="V32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" s="8" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="G33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I33" s="8" t="n">
+      <c r="I33" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J33" s="8" t="n">
+      <c r="J33" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K33" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L33" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M33" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O33" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P33" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="8" t="n">
+      <c r="K33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R33" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" s="8" t="n">
+      <c r="R33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T33" s="8" t="n">
+      <c r="T33" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U33" s="8" t="n">
+      <c r="U33" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V33" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" s="8" t="s">
+      <c r="V33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="0" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3104,71 +2980,71 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="C36" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="D36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="J36" s="3" t="n">
+      <c r="J36" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="K36" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L36" s="3" t="n">
+      <c r="K36" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="M36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O36" s="3" t="n">
+      <c r="M36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O36" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3" t="n">
+      <c r="P36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" s="3" t="n">
+      <c r="R36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="T36" s="3" t="n">
+      <c r="T36" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="U36" s="3" t="n">
+      <c r="U36" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="V36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" s="3" t="s">
+      <c r="V36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="0" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3240,282 +3116,282 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="C38" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="D38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="3" t="n">
+      <c r="G38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J38" s="3" t="n">
+      <c r="J38" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K38" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L38" s="3" t="n">
+      <c r="K38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O38" s="3" t="n">
+      <c r="M38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O38" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="P38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3" t="n">
+      <c r="P38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" s="3" t="n">
+      <c r="R38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T38" s="3" t="n">
+      <c r="T38" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U38" s="4" t="n">
+      <c r="U38" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" s="3" t="s">
+      <c r="V38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="C39" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J39" s="3" t="n">
+      <c r="J39" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K39" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L39" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="M39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="P39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3" t="n">
+      <c r="K39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="R39" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="S39" s="3" t="n">
+      <c r="R39" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S39" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T39" s="3" t="n">
+      <c r="T39" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="T40" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="U39" s="3" t="n">
+      <c r="U40" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="V39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="8" t="n">
+      <c r="V40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I40" s="8" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J40" s="8" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L40" s="8" t="n">
+      <c r="D41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="M40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O40" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="R40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="8" t="n">
+      <c r="M41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T40" s="8" t="n">
-        <v>1200</v>
-      </c>
-      <c r="U40" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V40" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="L41" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="M41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="P41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="R41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3" t="n">
-        <v>800</v>
-      </c>
-      <c r="T41" s="3" t="n">
+      <c r="T41" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U41" s="4" t="n">
+      <c r="U41" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V41" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3" t="s">
+      <c r="V41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -3573,10 +3449,10 @@
       <c r="S42" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T42" s="8" t="n">
+      <c r="T42" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U42" s="8" t="n">
+      <c r="U42" s="0" t="n">
         <v>0.522</v>
       </c>
       <c r="V42" s="0" t="n">
@@ -3586,7 +3462,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -3644,10 +3520,10 @@
       <c r="S43" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T43" s="8" t="n">
+      <c r="T43" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U43" s="8" t="n">
+      <c r="U43" s="0" t="n">
         <v>0.522</v>
       </c>
       <c r="V43" s="0" t="n">
@@ -3657,11 +3533,11 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="0" t="s">
         <v>130</v>
       </c>
       <c r="C44" s="0" t="n">
@@ -3712,7 +3588,7 @@
       <c r="S44" s="0" t="n">
         <v>1400</v>
       </c>
-      <c r="T44" s="8" t="n">
+      <c r="T44" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="U44" s="0" t="n">
@@ -3721,15 +3597,15 @@
       <c r="V44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W44" s="10" t="s">
+      <c r="W44" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="0" t="s">
         <v>132</v>
       </c>
       <c r="C45" s="0" t="n">
@@ -3783,231 +3659,227 @@
       <c r="S45" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T45" s="8" t="n">
+      <c r="T45" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U45" s="8" t="n">
+      <c r="U45" s="0" t="n">
         <v>0.522</v>
       </c>
       <c r="V45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="W45" s="10" t="s">
+      <c r="W45" s="0" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="8" t="n">
+      <c r="C46" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
+      <c r="D46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" s="8" t="s">
+      <c r="G46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I46" s="8" t="n">
+      <c r="I46" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="J46" s="8" t="n">
+      <c r="J46" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="K46" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L46" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O46" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="8" t="n">
+      <c r="K46" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="8" t="n">
+      <c r="R46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="0" t="n">
         <v>1200</v>
       </c>
-      <c r="T46" s="8" t="n">
+      <c r="T46" s="0" t="n">
         <v>1350</v>
       </c>
-      <c r="U46" s="8" t="n">
+      <c r="U46" s="0" t="n">
         <v>0.444</v>
       </c>
-      <c r="V46" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" s="11" t="s">
+      <c r="V46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="X46" s="8"/>
-    </row>
-    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>1150</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="8" t="n">
+      <c r="B48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="D48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="8" t="s">
+      <c r="G48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="8" t="n">
+      <c r="I48" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="J47" s="8" t="n">
+      <c r="J48" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K47" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L47" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M47" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O47" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P47" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="8" t="n">
+      <c r="K48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="R47" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="8" t="n">
+      <c r="R48" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="S48" s="0" t="n">
         <v>800</v>
       </c>
-      <c r="T47" s="8" t="n">
+      <c r="T48" s="0" t="n">
         <v>1150</v>
       </c>
-      <c r="U47" s="8" t="n">
+      <c r="U48" s="0" t="n">
         <v>0.522</v>
       </c>
-      <c r="V47" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="X47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J48" s="8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K48" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L48" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M48" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="O48" s="8" t="n">
-        <v>40</v>
-      </c>
-      <c r="P48" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="R48" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="S48" s="8" t="n">
-        <v>800</v>
-      </c>
-      <c r="T48" s="8" t="n">
-        <v>1150</v>
-      </c>
-      <c r="U48" s="8" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="V48" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" s="11" t="s">
+      <c r="V48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="X48" s="8"/>
-    </row>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
